--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
@@ -28,10 +28,10 @@
     <t>Block Bootstrapping</t>
   </si>
   <si>
+    <t>AREPD</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AREPD</t>
   </si>
   <si>
     <t>MCPS</t>
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>872664772330583.4</v>
+        <v>2999369305732183</v>
       </c>
       <c r="C2">
-        <v>1832196891097145</v>
+        <v>6297321029801379</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>866255519070556.5</v>
+        <v>2957864556379087</v>
       </c>
       <c r="C3">
-        <v>1818741110802962</v>
+        <v>6210180144467948</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>861033238384624</v>
+        <v>2947246238922365</v>
       </c>
       <c r="C4">
-        <v>1807776100714124</v>
+        <v>6187887764827355</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>634596790392014.1</v>
+        <v>2140874874689569</v>
       </c>
       <c r="C5">
-        <v>1332364733377226</v>
+        <v>4494874881394919</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>393632502221507.3</v>
+        <v>1312607574687019</v>
       </c>
       <c r="C6">
-        <v>826449842667303.5</v>
+        <v>2755887130005798</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>375797052032195.7</v>
+        <v>1227315061997159</v>
       </c>
       <c r="C7">
-        <v>789003882878579.9</v>
+        <v>2576811884227306</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>280228920863160.1</v>
+        <v>922533738916231.6</v>
       </c>
       <c r="C8">
-        <v>588353881774709.9</v>
+        <v>1936907386082162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>44589810729606.38</v>
+        <v>150416090478961.8</v>
       </c>
       <c r="C9">
-        <v>93618418399270.86</v>
+        <v>315806398270839.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1197967310.824762</v>
+        <v>164569420.8808171</v>
       </c>
       <c r="C10">
-        <v>2515195269.634922</v>
+        <v>345521813.0988252</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2999369305732183</v>
+        <v>2570887976341871</v>
       </c>
       <c r="C2">
-        <v>6297321029801379</v>
+        <v>5951653278551590</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2957864556379087</v>
+        <v>2535312476896360</v>
       </c>
       <c r="C3">
-        <v>6210180144467948</v>
+        <v>5869295631216111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2947246238922365</v>
+        <v>2526211061933456</v>
       </c>
       <c r="C4">
-        <v>6187887764827355</v>
+        <v>5848226765878424</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2140874874689569</v>
+        <v>1835035606876774</v>
       </c>
       <c r="C5">
-        <v>4494874881394919</v>
+        <v>4248145187274770</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1312607574687019</v>
+        <v>1125092206874587</v>
       </c>
       <c r="C6">
-        <v>2755887130005798</v>
+        <v>2604612672976170</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1227315061997159</v>
+        <v>1051984338854707</v>
       </c>
       <c r="C7">
-        <v>2576811884227306</v>
+        <v>2435367019846647</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>922533738916231.6</v>
+        <v>790743204785341.4</v>
       </c>
       <c r="C8">
-        <v>1936907386082162</v>
+        <v>1830587821417162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>150416090478961.8</v>
+        <v>128928077553395.9</v>
       </c>
       <c r="C9">
-        <v>315806398270839.8</v>
+        <v>298471340025910.3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>164569420.8808171</v>
+        <v>141059503.6121289</v>
       </c>
       <c r="C10">
-        <v>345521813.0988252</v>
+        <v>326555671.994087</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2570887976341871</v>
+        <v>2167615066290701</v>
       </c>
       <c r="C2">
-        <v>5951653278551590</v>
+        <v>5018056568004490</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2535312476896360</v>
+        <v>2137973970787784</v>
       </c>
       <c r="C3">
-        <v>5869295631216111</v>
+        <v>4949437397367131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2526211061933456</v>
+        <v>2132527638753326</v>
       </c>
       <c r="C4">
-        <v>5848226765878424</v>
+        <v>4936830349835802</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1835035606876774</v>
+        <v>1543741264872729</v>
       </c>
       <c r="C5">
-        <v>4248145187274770</v>
+        <v>3573784987446494</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1125092206874587</v>
+        <v>944229903108372.4</v>
       </c>
       <c r="C6">
-        <v>2604612672976170</v>
+        <v>2185908177301574</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1051984338854707</v>
+        <v>804472081958416</v>
       </c>
       <c r="C7">
-        <v>2435367019846647</v>
+        <v>1862362766069293</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>790743204785341.4</v>
+        <v>666816676091205.1</v>
       </c>
       <c r="C8">
-        <v>1830587821417162</v>
+        <v>1543692196125669</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>128928077553395.9</v>
+        <v>109414336465166.3</v>
       </c>
       <c r="C9">
-        <v>298471340025910.3</v>
+        <v>253296144801917.1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>141059503.6121289</v>
+        <v>112189862.6265715</v>
       </c>
       <c r="C10">
-        <v>326555671.994087</v>
+        <v>259720789.6349103</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/NUEVO_2_tabla_sensibilidad.xlsx
@@ -43,10 +43,10 @@
     <t>EnCQR-LSTM</t>
   </si>
   <si>
+    <t>LSPM</t>
+  </si>
+  <si>
     <t>LSPMW</t>
-  </si>
-  <si>
-    <t>LSPM</t>
   </si>
   <si>
     <t>Sieve Bootstrap</t>
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>666816676091205.1</v>
+        <v>109414336465166.3</v>
       </c>
       <c r="C8">
-        <v>1543692196125669</v>
+        <v>253296144801917.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>109414336465166.3</v>
+        <v>106412109605695.9</v>
       </c>
       <c r="C9">
-        <v>253296144801917.1</v>
+        <v>246345938679660.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
